--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp4</t>
   </si>
   <si>
     <t>Bmpr1a</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H2">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I2">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J2">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.52011984882392</v>
+        <v>5.122124666666667</v>
       </c>
       <c r="N2">
-        <v>4.52011984882392</v>
+        <v>15.366374</v>
       </c>
       <c r="O2">
-        <v>0.08853253402303933</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="P2">
-        <v>0.08853253402303933</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="Q2">
-        <v>38.90866457325511</v>
+        <v>44.43799135997666</v>
       </c>
       <c r="R2">
-        <v>38.90866457325511</v>
+        <v>399.94192223979</v>
       </c>
       <c r="S2">
-        <v>0.05119487705105668</v>
+        <v>0.05363259670523619</v>
       </c>
       <c r="T2">
-        <v>0.05119487705105668</v>
+        <v>0.05363259670523619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H3">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I3">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J3">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.1753901033388</v>
+        <v>34.19248466666667</v>
       </c>
       <c r="N3">
-        <v>34.1753901033388</v>
+        <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.669370279609227</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="P3">
-        <v>0.669370279609227</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="Q3">
-        <v>294.1777728608077</v>
+        <v>296.6435682601766</v>
       </c>
       <c r="R3">
-        <v>294.1777728608077</v>
+        <v>2669.79211434159</v>
       </c>
       <c r="S3">
-        <v>0.3870704656133299</v>
+        <v>0.35802169213322</v>
       </c>
       <c r="T3">
-        <v>0.3870704656133299</v>
+        <v>0.35802169213322</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H4">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I4">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J4">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.28650399062274</v>
+        <v>0.5566749999999999</v>
       </c>
       <c r="N4">
-        <v>1.28650399062274</v>
+        <v>1.670025</v>
       </c>
       <c r="O4">
-        <v>0.02519788459817461</v>
+        <v>0.01042327356567948</v>
       </c>
       <c r="P4">
-        <v>0.02519788459817461</v>
+        <v>0.01042327356567948</v>
       </c>
       <c r="Q4">
-        <v>11.074076333688</v>
+        <v>4.829542514124999</v>
       </c>
       <c r="R4">
-        <v>11.074076333688</v>
+        <v>43.465882627125</v>
       </c>
       <c r="S4">
-        <v>0.01457094409626363</v>
+        <v>0.005828816694990115</v>
       </c>
       <c r="T4">
-        <v>0.01457094409626363</v>
+        <v>0.005828816694990116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.607883391273059</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H5">
-        <v>8.607883391273059</v>
+        <v>26.027085</v>
       </c>
       <c r="I5">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J5">
-        <v>0.5782606091195124</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.074017590748</v>
+        <v>1.480867666666667</v>
       </c>
       <c r="N5">
-        <v>11.074017590748</v>
+        <v>4.442603</v>
       </c>
       <c r="O5">
-        <v>0.2168993017695591</v>
+        <v>0.02772800791168297</v>
       </c>
       <c r="P5">
-        <v>0.2168993017695591</v>
+        <v>0.02772800791168297</v>
       </c>
       <c r="Q5">
-        <v>95.3238520940654</v>
+        <v>12.84755621136167</v>
       </c>
       <c r="R5">
-        <v>95.3238520940654</v>
+        <v>115.628005902255</v>
       </c>
       <c r="S5">
-        <v>0.1254243223588622</v>
+        <v>0.0155058268802043</v>
       </c>
       <c r="T5">
-        <v>0.1254243223588622</v>
+        <v>0.0155058268802043</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.27793669662786</v>
+        <v>8.675694999999999</v>
       </c>
       <c r="H6">
-        <v>6.27793669662786</v>
+        <v>26.027085</v>
       </c>
       <c r="I6">
-        <v>0.4217393908804876</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="J6">
-        <v>0.4217393908804876</v>
+        <v>0.5592117158070719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.52011984882392</v>
+        <v>12.054774</v>
       </c>
       <c r="N6">
-        <v>4.52011984882392</v>
+        <v>36.164322</v>
       </c>
       <c r="O6">
-        <v>0.08853253402303933</v>
+        <v>0.2257155560685144</v>
       </c>
       <c r="P6">
-        <v>0.08853253402303933</v>
+        <v>0.2257155560685144</v>
       </c>
       <c r="Q6">
-        <v>28.37702627208766</v>
+        <v>104.58354251793</v>
       </c>
       <c r="R6">
-        <v>28.37702627208766</v>
+        <v>941.2518826613699</v>
       </c>
       <c r="S6">
-        <v>0.03733765697198265</v>
+        <v>0.1262227833934213</v>
       </c>
       <c r="T6">
-        <v>0.03733765697198265</v>
+        <v>0.1262227833934213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H7">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I7">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J7">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.1753901033388</v>
+        <v>5.122124666666667</v>
       </c>
       <c r="N7">
-        <v>34.1753901033388</v>
+        <v>15.366374</v>
       </c>
       <c r="O7">
-        <v>0.669370279609227</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="P7">
-        <v>0.669370279609227</v>
+        <v>0.09590749833957242</v>
       </c>
       <c r="Q7">
-        <v>214.5509356513232</v>
+        <v>32.35159891564978</v>
       </c>
       <c r="R7">
-        <v>214.5509356513232</v>
+        <v>291.164390240848</v>
       </c>
       <c r="S7">
-        <v>0.282299813995897</v>
+        <v>0.03904542496885512</v>
       </c>
       <c r="T7">
-        <v>0.282299813995897</v>
+        <v>0.03904542496885512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H8">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I8">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J8">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.28650399062274</v>
+        <v>34.19248466666667</v>
       </c>
       <c r="N8">
-        <v>1.28650399062274</v>
+        <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.02519788459817461</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="P8">
-        <v>0.02519788459817461</v>
+        <v>0.6402256641145507</v>
       </c>
       <c r="Q8">
-        <v>8.076590613088683</v>
+        <v>215.9614655738898</v>
       </c>
       <c r="R8">
-        <v>8.076590613088683</v>
+        <v>1943.653190165008</v>
       </c>
       <c r="S8">
-        <v>0.01062694050191098</v>
+        <v>0.2606457635127966</v>
       </c>
       <c r="T8">
-        <v>0.01062694050191098</v>
+        <v>0.2606457635127966</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.27793669662786</v>
+        <v>6.316050666666666</v>
       </c>
       <c r="H9">
-        <v>6.27793669662786</v>
+        <v>18.948152</v>
       </c>
       <c r="I9">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="J9">
-        <v>0.4217393908804876</v>
+        <v>0.407115456505913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>11.074017590748</v>
+        <v>0.5566749999999999</v>
       </c>
       <c r="N9">
-        <v>11.074017590748</v>
+        <v>1.670025</v>
       </c>
       <c r="O9">
-        <v>0.2168993017695591</v>
+        <v>0.01042327356567948</v>
       </c>
       <c r="P9">
-        <v>0.2168993017695591</v>
+        <v>0.01042327356567948</v>
       </c>
       <c r="Q9">
-        <v>69.5219814120593</v>
+        <v>3.515987504866666</v>
       </c>
       <c r="R9">
-        <v>69.5219814120593</v>
+        <v>31.6438875438</v>
       </c>
       <c r="S9">
-        <v>0.09147497941069692</v>
+        <v>0.004243475775977615</v>
       </c>
       <c r="T9">
-        <v>0.09147497941069692</v>
+        <v>0.004243475775977616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.316050666666666</v>
+      </c>
+      <c r="H10">
+        <v>18.948152</v>
+      </c>
+      <c r="I10">
+        <v>0.407115456505913</v>
+      </c>
+      <c r="J10">
+        <v>0.407115456505913</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.442603</v>
+      </c>
+      <c r="O10">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P10">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q10">
+        <v>9.353235213295111</v>
+      </c>
+      <c r="R10">
+        <v>84.179116919656</v>
+      </c>
+      <c r="S10">
+        <v>0.01128850059896438</v>
+      </c>
+      <c r="T10">
+        <v>0.01128850059896438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.316050666666666</v>
+      </c>
+      <c r="H11">
+        <v>18.948152</v>
+      </c>
+      <c r="I11">
+        <v>0.407115456505913</v>
+      </c>
+      <c r="J11">
+        <v>0.407115456505913</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.054774</v>
+      </c>
+      <c r="N11">
+        <v>36.164322</v>
+      </c>
+      <c r="O11">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P11">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q11">
+        <v>76.13856335921599</v>
+      </c>
+      <c r="R11">
+        <v>685.247070232944</v>
+      </c>
+      <c r="S11">
+        <v>0.09189229164931924</v>
+      </c>
+      <c r="T11">
+        <v>0.09189229164931924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.567216</v>
+      </c>
+      <c r="I12">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J12">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.122124666666667</v>
+      </c>
+      <c r="N12">
+        <v>15.366374</v>
+      </c>
+      <c r="O12">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="P12">
+        <v>0.09590749833957242</v>
+      </c>
+      <c r="Q12">
+        <v>2.675825243864889</v>
+      </c>
+      <c r="R12">
+        <v>24.082427194784</v>
+      </c>
+      <c r="S12">
+        <v>0.003229476665481111</v>
+      </c>
+      <c r="T12">
+        <v>0.003229476665481111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.567216</v>
+      </c>
+      <c r="I13">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J13">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.19248466666667</v>
+      </c>
+      <c r="N13">
+        <v>102.577454</v>
+      </c>
+      <c r="O13">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="P13">
+        <v>0.6402256641145507</v>
+      </c>
+      <c r="Q13">
+        <v>17.86233634978489</v>
+      </c>
+      <c r="R13">
+        <v>160.761027148064</v>
+      </c>
+      <c r="S13">
+        <v>0.02155820846853409</v>
+      </c>
+      <c r="T13">
+        <v>0.02155820846853409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.567216</v>
+      </c>
+      <c r="I14">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J14">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.5566749999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.670025</v>
+      </c>
+      <c r="O14">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="P14">
+        <v>0.01042327356567948</v>
+      </c>
+      <c r="Q14">
+        <v>0.2908099889333333</v>
+      </c>
+      <c r="R14">
+        <v>2.6172899004</v>
+      </c>
+      <c r="S14">
+        <v>0.0003509810947117447</v>
+      </c>
+      <c r="T14">
+        <v>0.0003509810947117447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.567216</v>
+      </c>
+      <c r="I15">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J15">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.480867666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.442603</v>
+      </c>
+      <c r="O15">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="P15">
+        <v>0.02772800791168297</v>
+      </c>
+      <c r="Q15">
+        <v>0.7736131670275557</v>
+      </c>
+      <c r="R15">
+        <v>6.962518503248001</v>
+      </c>
+      <c r="S15">
+        <v>0.0009336804325142927</v>
+      </c>
+      <c r="T15">
+        <v>0.0009336804325142926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5224053333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.567216</v>
+      </c>
+      <c r="I16">
+        <v>0.03367282768701513</v>
+      </c>
+      <c r="J16">
+        <v>0.03367282768701512</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.054774</v>
+      </c>
+      <c r="N16">
+        <v>36.164322</v>
+      </c>
+      <c r="O16">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="P16">
+        <v>0.2257155560685144</v>
+      </c>
+      <c r="Q16">
+        <v>6.297478229728001</v>
+      </c>
+      <c r="R16">
+        <v>56.677304067552</v>
+      </c>
+      <c r="S16">
+        <v>0.007600481025773888</v>
+      </c>
+      <c r="T16">
+        <v>0.007600481025773886</v>
       </c>
     </row>
   </sheetData>
